--- a/data/rust_Raw_Data_v3.xlsx
+++ b/data/rust_Raw_Data_v3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="116" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{444FA014-ECAC-4DF2-8CFF-5EC643B24230}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E63DE29A-8BF4-4E50-B569-E4668F26068C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rawData" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <t>EVENT_CATEGORY</t>
   </si>
   <si>
-    <t>EVENT_SUBTYPE</t>
+    <t>EVENT_SUBTYPE1</t>
   </si>
   <si>
     <t>EVENT_SUBTYPE2</t>
@@ -5111,7 +5111,7 @@
     <tableColumn id="6" xr3:uid="{0AC8E67C-84DC-450E-A967-0C64380E993E}" name="PRIMARY_STREAMER" dataDxfId="9"/>
     <tableColumn id="7" xr3:uid="{30856BFC-DA5D-437C-9D22-F3B4DF23C3BC}" name="INVOLVED_STREAMERS" dataDxfId="8"/>
     <tableColumn id="8" xr3:uid="{D608E597-9C6B-4BBF-8562-D4063C3A94EF}" name="EVENT_CATEGORY" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{33D74677-01A3-458E-8D87-80F7DE33C5B0}" name="EVENT_SUBTYPE" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{33D74677-01A3-458E-8D87-80F7DE33C5B0}" name="EVENT_SUBTYPE1" dataDxfId="6"/>
     <tableColumn id="10" xr3:uid="{BBA2CF96-1C9B-4F3D-A0BF-B84CA2DD00A3}" name="EVENT_SUBTYPE2" dataDxfId="5"/>
     <tableColumn id="11" xr3:uid="{712E7E39-D5D8-4161-B117-5DCDBFE88D8E}" name="EVENT_SUBTYPE3" dataDxfId="4"/>
     <tableColumn id="12" xr3:uid="{7F38D0A9-8197-4865-8023-49C8089521CB}" name="EVENT_SUMMARY" dataDxfId="3"/>
@@ -5436,8 +5436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0038FA5-05B6-4E7A-B8F6-AB5517324171}">
   <dimension ref="A1:O641"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34309,9 +34309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA093068-99E9-4F75-90A6-D46A9ECBE0F5}">
   <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/data/rust_Raw_Data_v3.xlsx
+++ b/data/rust_Raw_Data_v3.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="117" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E63DE29A-8BF4-4E50-B569-E4668F26068C}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5C906ED-5B2E-4085-B395-E6069CF9B6D2}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="rawData" sheetId="2" r:id="rId1"/>
-    <sheet name="streamerData" sheetId="3" r:id="rId2"/>
+    <sheet name="rawdata" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,51 +31,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8191" uniqueCount="1643">
-  <si>
-    <t>DAY</t>
-  </si>
-  <si>
-    <t>VOD_ID</t>
-  </si>
-  <si>
-    <t>PLATFORM</t>
-  </si>
-  <si>
-    <t>LOCATION</t>
-  </si>
-  <si>
-    <t>REGION_BIOME</t>
-  </si>
-  <si>
-    <t>PRIMARY_STREAMER</t>
-  </si>
-  <si>
-    <t>INVOLVED_STREAMERS</t>
-  </si>
-  <si>
-    <t>EVENT_CATEGORY</t>
-  </si>
-  <si>
-    <t>EVENT_SUBTYPE1</t>
-  </si>
-  <si>
-    <t>EVENT_SUBTYPE2</t>
-  </si>
-  <si>
-    <t>EVENT_SUBTYPE3</t>
-  </si>
-  <si>
-    <t>EVENT_SUMMARY</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>VOD_URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      FixSort</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7700" uniqueCount="1469">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>vod_id</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>biome</t>
+  </si>
+  <si>
+    <t>primary_streamer</t>
+  </si>
+  <si>
+    <t>involved_streamers</t>
+  </si>
+  <si>
+    <t>event_category</t>
+  </si>
+  <si>
+    <t>event_subtype1</t>
+  </si>
+  <si>
+    <t>event_subtype2</t>
+  </si>
+  <si>
+    <t>event_subtype3</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>vod_url</t>
+  </si>
+  <si>
+    <t>fixedsort</t>
   </si>
   <si>
     <t>1 - 20th</t>
@@ -4448,528 +4447,6 @@
   <si>
     <t>https://parasoci.al/vods/2025-09-30.3367?time=6230</t>
   </si>
-  <si>
-    <t>ROLEPLAY_NAME</t>
-  </si>
-  <si>
-    <t>STREAMER_NAME</t>
-  </si>
-  <si>
-    <t>SOCIALS</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/acie</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/aikobliss</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/alpacasita</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/bananaman</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/baycon_</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/justlittlebean</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/b28b1</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/belindabtw</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/blau</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/blurbs</t>
-  </si>
-  <si>
-    <t>BoxBox</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/boxbox</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/brew</t>
-  </si>
-  <si>
-    <t>Brookab</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/brookab</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/chickencoop</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/chipdingle</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/chrismelberger</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/chrissytinafx</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/clammerr</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/coconutb</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/cookiemanman</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/cringechin</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/curtisryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyr </t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/cyr</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/dakkiin</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/dappa</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/rustdavinci</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/deathwingua</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/derapchu</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/dima_wallhacks</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/domerrust</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/dwagonlvl</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/ellum</t>
-  </si>
-  <si>
-    <t>EmiOK</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/emiok</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/emiru</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/enardo</t>
-  </si>
-  <si>
-    <t>Enevun</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/enevun</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/ezbompany</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/farmerlucas</t>
-  </si>
-  <si>
-    <t>Fire_Val</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/fire_val</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/fizzythefishy</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/foolish</t>
-  </si>
-  <si>
-    <t>xFSN_Saber</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/xfsn_saber</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/fuslie</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/galaaxxy</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/geega</t>
-  </si>
-  <si>
-    <t>HeyYouVideoGame</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/heyyouvideogame</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/goofyteamo</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/goosey</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/grimmmz</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/hjune</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/holagatolive</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/hossontwitch</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/hutnik</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/ikitty</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/impheetus</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/itsdeadlyboop</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/jaina_splinters</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/jdilla</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/jennifer</t>
-  </si>
-  <si>
-    <t>Jennifer Coolidge</t>
-  </si>
-  <si>
-    <t>CarolineKwan</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/carolinekwan</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/jennybeartv</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/jihi</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/jogiiee</t>
-  </si>
-  <si>
-    <t>JohnChoi</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/johnchoi</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/carlosthegardener</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/jozukai</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/jumpmaan</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/katie2tru</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/kayli_j</t>
-  </si>
-  <si>
-    <t>KeykatVtuber</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/keykat</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/kikikiana</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/kira</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/kitdy</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/knut</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/kooby_</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/kourra</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/ladydima</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/lifestomper</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/lilliliza</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/lilmslilith</t>
-  </si>
-  <si>
-    <t>LoKwunYe</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/lyssaurora</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/marymaybe</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/masayoshi</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/mely</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/missginadarling</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/mixelplx</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/michimochievee</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/mogley67</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/mohr</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/monstera</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/morgana</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/mrwobblestwitch</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/naivety</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/fukura</t>
-  </si>
-  <si>
-    <t>Neeks</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/nelkucosplay</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/omni_live</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/paddymazz</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/parblaze</t>
-  </si>
-  <si>
-    <t>Not Wubby</t>
-  </si>
-  <si>
-    <t>PaymoneyWubby</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/paymoneyWubby</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/peterpark</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/picco</t>
-  </si>
-  <si>
-    <t>Ryan Higa</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/itsryanhiga</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/poshie</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/potatokai</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/queenmanda</t>
-  </si>
-  <si>
-    <t>rated</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/ratedepicz</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/raynbirds</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/razzy</t>
-  </si>
-  <si>
-    <t>ren</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/rencognito</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/russel</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/salmmus</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/sanauchiha</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/serwinterofficial</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/shaneyit</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/shoomimi</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/shxtou</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/sinksr</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/sneegsnag</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/snuffyfluffy</t>
-  </si>
-  <si>
-    <t>Sol</t>
-  </si>
-  <si>
-    <t>Solutized</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/solutized</t>
-  </si>
-  <si>
-    <t>Stonewall009</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/stonewall008</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/sukidingels</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/sven</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/sykkuno</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/taylien</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/teaguytom</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/teawithmilkandsugar</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/templetaps</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/thatdamnlamb</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/tinakitten</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/triciaisabirdy</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/tsunamicat</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/twinkles</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/vgumiho</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/vilifiedpeanut</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/wakewilder</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/welyn</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/willjum</t>
-  </si>
-  <si>
-    <t>Father Billy</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/willneff</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/winnie</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/xkevv</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/xqc</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/yickster</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/youney</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/zchum</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/zeaiand</t>
-  </si>
 </sst>
 </file>
 
@@ -4978,18 +4455,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5012,11 +4481,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5027,7 +4495,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5035,8 +4502,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -5103,35 +4569,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{37AD52E1-823F-4BD7-BDA7-87385CFA278E}" name="Table2" displayName="Table2" ref="A1:O641" totalsRowShown="0">
   <autoFilter ref="A1:O641" xr:uid="{37AD52E1-823F-4BD7-BDA7-87385CFA278E}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{94EE62DF-BB27-43EB-8807-9731D9DA1248}" name="DAY" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{B1889D62-14FC-44D1-B8A8-3A624B37CBCD}" name="VOD_ID" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{053CA5EC-2DDB-4B90-9D72-A5D9D4A7E166}" name="PLATFORM" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{1F1914D7-DCDA-4F81-BE1C-4FFAACC10A8A}" name="LOCATION" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{51BC3C41-27E2-485C-94D6-7F119223973A}" name="REGION_BIOME" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{0AC8E67C-84DC-450E-A967-0C64380E993E}" name="PRIMARY_STREAMER" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{30856BFC-DA5D-437C-9D22-F3B4DF23C3BC}" name="INVOLVED_STREAMERS" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{D608E597-9C6B-4BBF-8562-D4063C3A94EF}" name="EVENT_CATEGORY" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{33D74677-01A3-458E-8D87-80F7DE33C5B0}" name="EVENT_SUBTYPE1" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{BBA2CF96-1C9B-4F3D-A0BF-B84CA2DD00A3}" name="EVENT_SUBTYPE2" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{712E7E39-D5D8-4161-B117-5DCDBFE88D8E}" name="EVENT_SUBTYPE3" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{7F38D0A9-8197-4865-8023-49C8089521CB}" name="EVENT_SUMMARY" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{9D0A82A0-9508-410F-921F-8B29FDE8A8B4}" name="TIMESTAMP" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{B30D76E2-0BC7-417E-98BC-55434C389B00}" name="VOD_URL" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{B6FBE2F5-9DC5-4FE4-8027-989C52E499BE}" name="      FixSort" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{94EE62DF-BB27-43EB-8807-9731D9DA1248}" name="date" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{B1889D62-14FC-44D1-B8A8-3A624B37CBCD}" name="vod_id" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{053CA5EC-2DDB-4B90-9D72-A5D9D4A7E166}" name="platform" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{1F1914D7-DCDA-4F81-BE1C-4FFAACC10A8A}" name="location" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{51BC3C41-27E2-485C-94D6-7F119223973A}" name="biome" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{0AC8E67C-84DC-450E-A967-0C64380E993E}" name="primary_streamer" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{30856BFC-DA5D-437C-9D22-F3B4DF23C3BC}" name="involved_streamers" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{D608E597-9C6B-4BBF-8562-D4063C3A94EF}" name="event_category" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{33D74677-01A3-458E-8D87-80F7DE33C5B0}" name="event_subtype1" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{BBA2CF96-1C9B-4F3D-A0BF-B84CA2DD00A3}" name="event_subtype2" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{712E7E39-D5D8-4161-B117-5DCDBFE88D8E}" name="event_subtype3" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{7F38D0A9-8197-4865-8023-49C8089521CB}" name="summary" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{9D0A82A0-9508-410F-921F-8B29FDE8A8B4}" name="timestamp" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{B30D76E2-0BC7-417E-98BC-55434C389B00}" name="vod_url" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{B6FBE2F5-9DC5-4FE4-8027-989C52E499BE}" name="fixedsort" dataDxfId="0">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A9AB932B-CD44-4E90-BE13-CAC09B83AB84}" name="Table3" displayName="Table3" ref="A1:C164" totalsRowShown="0">
-  <autoFilter ref="A1:C164" xr:uid="{A9AB932B-CD44-4E90-BE13-CAC09B83AB84}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2E6AC622-2386-4C2E-8F5A-E4431C16A211}" name="ROLEPLAY_NAME"/>
-    <tableColumn id="2" xr3:uid="{18EE9876-9FFD-4C3E-AAEE-3B163A10C95D}" name="STREAMER_NAME"/>
-    <tableColumn id="3" xr3:uid="{C0FD4F3A-8EE0-4089-B9D5-5EC05E96557B}" name="SOCIALS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5437,7 +4891,7 @@
   <dimension ref="A1:O641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5475,28 +4929,28 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -34303,1828 +33757,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA093068-99E9-4F75-90A6-D46A9ECBE0F5}">
-  <dimension ref="A1:C164"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B8" t="s">
-        <v>418</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>856</v>
-      </c>
-      <c r="B9" t="s">
-        <v>856</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>331</v>
-      </c>
-      <c r="B11" t="s">
-        <v>331</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>309</v>
-      </c>
-      <c r="B12" t="s">
-        <v>309</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>481</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>483</v>
-      </c>
-      <c r="B14" t="s">
-        <v>483</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>526</v>
-      </c>
-      <c r="B18" t="s">
-        <v>526</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>347</v>
-      </c>
-      <c r="B19" t="s">
-        <v>347</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>321</v>
-      </c>
-      <c r="B21" t="s">
-        <v>321</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>535</v>
-      </c>
-      <c r="B22" t="s">
-        <v>535</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>802</v>
-      </c>
-      <c r="B23" t="s">
-        <v>802</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>239</v>
-      </c>
-      <c r="B24" t="s">
-        <v>239</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>423</v>
-      </c>
-      <c r="B25" t="s">
-        <v>423</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>399</v>
-      </c>
-      <c r="B27" t="s">
-        <v>399</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>335</v>
-      </c>
-      <c r="B28" t="s">
-        <v>335</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>569</v>
-      </c>
-      <c r="B30" t="s">
-        <v>569</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>538</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>498</v>
-      </c>
-      <c r="B34" t="s">
-        <v>498</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>329</v>
-      </c>
-      <c r="B35" t="s">
-        <v>329</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>544</v>
-      </c>
-      <c r="B36" t="s">
-        <v>544</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>454</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>333</v>
-      </c>
-      <c r="B38" t="s">
-        <v>333</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>457</v>
-      </c>
-      <c r="B39" t="s">
-        <v>457</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>697</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>541</v>
-      </c>
-      <c r="B41" t="s">
-        <v>541</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>702</v>
-      </c>
-      <c r="B42" t="s">
-        <v>702</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>616</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>635</v>
-      </c>
-      <c r="B44" t="s">
-        <v>635</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>284</v>
-      </c>
-      <c r="B45" t="s">
-        <v>284</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>730</v>
-      </c>
-      <c r="B47" t="s">
-        <v>730</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>556</v>
-      </c>
-      <c r="B48" t="s">
-        <v>556</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>707</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>315</v>
-      </c>
-      <c r="B50" t="s">
-        <v>315</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>219</v>
-      </c>
-      <c r="B52" t="s">
-        <v>219</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>210</v>
-      </c>
-      <c r="B53" t="s">
-        <v>210</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>613</v>
-      </c>
-      <c r="B54" t="s">
-        <v>613</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>289</v>
-      </c>
-      <c r="B58" t="s">
-        <v>289</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>736</v>
-      </c>
-      <c r="B59" t="s">
-        <v>736</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>205</v>
-      </c>
-      <c r="B60" t="s">
-        <v>205</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>610</v>
-      </c>
-      <c r="B62" t="s">
-        <v>610</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>248</v>
-      </c>
-      <c r="B63" t="s">
-        <v>248</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>358</v>
-      </c>
-      <c r="B64" t="s">
-        <v>358</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>198</v>
-      </c>
-      <c r="B65" t="s">
-        <v>198</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>379</v>
-      </c>
-      <c r="B67" t="s">
-        <v>379</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>618</v>
-      </c>
-      <c r="B68" t="s">
-        <v>618</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>254</v>
-      </c>
-      <c r="B69" t="s">
-        <v>254</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>184</v>
-      </c>
-      <c r="B72" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>282</v>
-      </c>
-      <c r="B73" t="s">
-        <v>282</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>324</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>113</v>
-      </c>
-      <c r="B75" t="s">
-        <v>113</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>432</v>
-      </c>
-      <c r="B77" t="s">
-        <v>432</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>383</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1553</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>312</v>
-      </c>
-      <c r="B80" t="s">
-        <v>312</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>318</v>
-      </c>
-      <c r="B81" t="s">
-        <v>318</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>105</v>
-      </c>
-      <c r="B82" t="s">
-        <v>105</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>136</v>
-      </c>
-      <c r="B83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>426</v>
-      </c>
-      <c r="B84" t="s">
-        <v>426</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>31</v>
-      </c>
-      <c r="B85" t="s">
-        <v>31</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>78</v>
-      </c>
-      <c r="B86" t="s">
-        <v>78</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>691</v>
-      </c>
-      <c r="B87" t="s">
-        <v>691</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>364</v>
-      </c>
-      <c r="B88" t="s">
-        <v>364</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>226</v>
-      </c>
-      <c r="B90" t="s">
-        <v>226</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>704</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>245</v>
-      </c>
-      <c r="B92" t="s">
-        <v>245</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>467</v>
-      </c>
-      <c r="B93" t="s">
-        <v>467</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>739</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C96" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C97" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>90</v>
-      </c>
-      <c r="B98" t="s">
-        <v>90</v>
-      </c>
-      <c r="C98" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>505</v>
-      </c>
-      <c r="B99" t="s">
-        <v>505</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>694</v>
-      </c>
-      <c r="B100" t="s">
-        <v>694</v>
-      </c>
-      <c r="C100" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>63</v>
-      </c>
-      <c r="B101" t="s">
-        <v>63</v>
-      </c>
-      <c r="C101" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>341</v>
-      </c>
-      <c r="B102" t="s">
-        <v>341</v>
-      </c>
-      <c r="C102" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>231</v>
-      </c>
-      <c r="B103" t="s">
-        <v>231</v>
-      </c>
-      <c r="C103" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>171</v>
-      </c>
-      <c r="B104" t="s">
-        <v>171</v>
-      </c>
-      <c r="C104" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>139</v>
-      </c>
-      <c r="B105" t="s">
-        <v>139</v>
-      </c>
-      <c r="C105" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C106" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>844</v>
-      </c>
-      <c r="B107" t="s">
-        <v>844</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>488</v>
-      </c>
-      <c r="B108" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>124</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C109" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>149</v>
-      </c>
-      <c r="B110" t="s">
-        <v>149</v>
-      </c>
-      <c r="C110" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>233</v>
-      </c>
-      <c r="B111" t="s">
-        <v>233</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>222</v>
-      </c>
-      <c r="B112" t="s">
-        <v>222</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1586</v>
-      </c>
-      <c r="C113" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>69</v>
-      </c>
-      <c r="B114" t="s">
-        <v>69</v>
-      </c>
-      <c r="C114" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>835</v>
-      </c>
-      <c r="B115" t="s">
-        <v>835</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C116" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>208</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C117" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>74</v>
-      </c>
-      <c r="B118" t="s">
-        <v>74</v>
-      </c>
-      <c r="C118" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>446</v>
-      </c>
-      <c r="B119" t="s">
-        <v>446</v>
-      </c>
-      <c r="C119" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>724</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C120" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>229</v>
-      </c>
-      <c r="B121" t="s">
-        <v>229</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B122" t="s">
-        <v>55</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>169</v>
-      </c>
-      <c r="B123" t="s">
-        <v>169</v>
-      </c>
-      <c r="C123" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>503</v>
-      </c>
-      <c r="B124" t="s">
-        <v>503</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>1599</v>
-      </c>
-      <c r="B125" t="s">
-        <v>242</v>
-      </c>
-      <c r="C125" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>491</v>
-      </c>
-      <c r="B126" t="s">
-        <v>491</v>
-      </c>
-      <c r="C126" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>35</v>
-      </c>
-      <c r="B127" t="s">
-        <v>35</v>
-      </c>
-      <c r="C127" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>280</v>
-      </c>
-      <c r="B128" t="s">
-        <v>280</v>
-      </c>
-      <c r="C128" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>152</v>
-      </c>
-      <c r="B129" t="s">
-        <v>152</v>
-      </c>
-      <c r="C129" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C130" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>46</v>
-      </c>
-      <c r="B132" t="s">
-        <v>46</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C133" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>849</v>
-      </c>
-      <c r="B134" t="s">
-        <v>849</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>162</v>
-      </c>
-      <c r="B135" t="s">
-        <v>162</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>1611</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>306</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>700</v>
-      </c>
-      <c r="B138" t="s">
-        <v>700</v>
-      </c>
-      <c r="C138" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>141</v>
-      </c>
-      <c r="B139" t="s">
-        <v>141</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>714</v>
-      </c>
-      <c r="B140" t="s">
-        <v>714</v>
-      </c>
-      <c r="C140" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>620</v>
-      </c>
-      <c r="B141" t="s">
-        <v>620</v>
-      </c>
-      <c r="C141" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>155</v>
-      </c>
-      <c r="B142" t="s">
-        <v>155</v>
-      </c>
-      <c r="C142" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>500</v>
-      </c>
-      <c r="B143" t="s">
-        <v>500</v>
-      </c>
-      <c r="C143" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>130</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C144" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>93</v>
-      </c>
-      <c r="B145" t="s">
-        <v>93</v>
-      </c>
-      <c r="C145" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>449</v>
-      </c>
-      <c r="B146" t="s">
-        <v>449</v>
-      </c>
-      <c r="C146" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>94</v>
-      </c>
-      <c r="B147" t="s">
-        <v>94</v>
-      </c>
-      <c r="C147" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>127</v>
-      </c>
-      <c r="B148" t="s">
-        <v>127</v>
-      </c>
-      <c r="C148" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>840</v>
-      </c>
-      <c r="B149" t="s">
-        <v>840</v>
-      </c>
-      <c r="C149" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>120</v>
-      </c>
-      <c r="B150" t="s">
-        <v>120</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>642</v>
-      </c>
-      <c r="B151" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C151" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>344</v>
-      </c>
-      <c r="B152" t="s">
-        <v>344</v>
-      </c>
-      <c r="C152" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>189</v>
-      </c>
-      <c r="B153" t="s">
-        <v>189</v>
-      </c>
-      <c r="C153" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>216</v>
-      </c>
-      <c r="B154" t="s">
-        <v>216</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>51</v>
-      </c>
-      <c r="B155" t="s">
-        <v>51</v>
-      </c>
-      <c r="C155" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B156" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C156" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>1633</v>
-      </c>
-      <c r="B157" t="s">
-        <v>361</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>144</v>
-      </c>
-      <c r="B158" t="s">
-        <v>144</v>
-      </c>
-      <c r="C158" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C159" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>1637</v>
-      </c>
-      <c r="B160" t="s">
-        <v>97</v>
-      </c>
-      <c r="C160" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>547</v>
-      </c>
-      <c r="B161" t="s">
-        <v>547</v>
-      </c>
-      <c r="C161" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>117</v>
-      </c>
-      <c r="B162" t="s">
-        <v>117</v>
-      </c>
-      <c r="C162" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>236</v>
-      </c>
-      <c r="B163" t="s">
-        <v>236</v>
-      </c>
-      <c r="C163" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>264</v>
-      </c>
-      <c r="B164" t="s">
-        <v>264</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C164" r:id="rId1" xr:uid="{93F506A7-0A45-42D1-8DCD-6319754AC604}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>